--- a/Veri_Setleri/SatırAtla.xlsx
+++ b/Veri_Setleri/SatırAtla.xlsx
@@ -250,7 +250,7 @@
   <dimension ref="A1:D252"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -490,9 +490,7 @@
       <c r="A19" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="5" t="n">
-        <v>1954</v>
-      </c>
+      <c r="B19" s="5"/>
       <c r="C19" s="6" t="s">
         <v>20</v>
       </c>
